--- a/MySQLToExcel/bin/Debug/ExportExcel/prop.xlsx
+++ b/MySQLToExcel/bin/Debug/ExportExcel/prop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="37755" windowHeight="14805"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="22635" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>道具ID</t>
   </si>
@@ -28,7 +28,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>int(11)</t>
+    <t>id(int(11))</t>
   </si>
   <si>
     <t>道具类型 （1：经验道具，2：装备，3：装备碎片，4：英雄灵魂石）</t>
@@ -37,12 +37,18 @@
     <t>type</t>
   </si>
   <si>
+    <t>type(int(11))</t>
+  </si>
+  <si>
     <t>子类型</t>
   </si>
   <si>
     <t>subType</t>
   </si>
   <si>
+    <t>subType(int(11))</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
@@ -52,7 +58,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>varchar(20)</t>
+    <t>name(varchar(20))</t>
   </si>
   <si>
     <t>小号经验药水</t>
@@ -91,7 +97,7 @@
     <t>desc</t>
   </si>
   <si>
-    <t>varchar(50)</t>
+    <t>desc(varchar(50))</t>
   </si>
   <si>
     <t>使用增加英雄经验100点</t>
@@ -106,12 +112,18 @@
     <t>quality</t>
   </si>
   <si>
+    <t>quality(int(11))</t>
+  </si>
+  <si>
     <t>图标</t>
   </si>
   <si>
     <t>icon</t>
   </si>
   <si>
+    <t>icon(varchar(20))</t>
+  </si>
+  <si>
     <t>item1</t>
   </si>
   <si>
@@ -119,6 +131,9 @@
   </si>
   <si>
     <t>sellPrice</t>
+  </si>
+  <si>
+    <t>sellPrice(int(11))</t>
   </si>
   <si>
     <t>exportDatabaseTableName</t>
@@ -702,22 +717,22 @@
         <v>4</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I1" s="8"/>
     </row>
@@ -729,22 +744,22 @@
         <v>5</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I2" s="8"/>
     </row>
@@ -759,16 +774,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>2</v>
@@ -786,30 +801,30 @@
       <c r="H4" s="16"/>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="I5" s="8"/>
     </row>
@@ -824,16 +839,16 @@
         <v>-1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" s="10">
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H6" s="12">
         <v>500</v>
@@ -850,16 +865,16 @@
         <v>-1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H7" s="6">
         <v>800</v>
@@ -876,16 +891,16 @@
         <v>-1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H8" s="6">
         <v>800</v>
@@ -902,16 +917,16 @@
         <v>-1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H9" s="6">
         <v>800</v>
@@ -928,16 +943,16 @@
         <v>-1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H10" s="6">
         <v>800</v>
@@ -954,16 +969,16 @@
         <v>-1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H11" s="6">
         <v>800</v>
@@ -980,16 +995,16 @@
         <v>-1</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H12" s="6">
         <v>800</v>
@@ -1006,16 +1021,16 @@
         <v>-1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H13" s="6">
         <v>800</v>
@@ -1032,16 +1047,16 @@
         <v>-1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H14" s="6">
         <v>800</v>
@@ -1058,16 +1073,16 @@
         <v>-1</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H15" s="6">
         <v>800</v>
@@ -1099,12 +1114,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/MySQLToExcel/bin/Debug/ExportExcel/prop.xlsx
+++ b/MySQLToExcel/bin/Debug/ExportExcel/prop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="22635" windowHeight="11655"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="22635" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>

--- a/MySQLToExcel/bin/Debug/ExportExcel/prop.xlsx
+++ b/MySQLToExcel/bin/Debug/ExportExcel/prop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="22635" windowHeight="8730"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="32355" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>道具ID</t>
   </si>
@@ -28,7 +28,37 @@
     <t>int</t>
   </si>
   <si>
-    <t>id(int(11))</t>
+    <t>id(INT(11))</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>200001</t>
+  </si>
+  <si>
+    <t>200002</t>
+  </si>
+  <si>
+    <t>200003</t>
+  </si>
+  <si>
+    <t>200004</t>
+  </si>
+  <si>
+    <t>200005</t>
+  </si>
+  <si>
+    <t>200006</t>
+  </si>
+  <si>
+    <t>200007</t>
+  </si>
+  <si>
+    <t>200008</t>
   </si>
   <si>
     <t>道具类型 （1：经验道具，2：装备，3：装备碎片，4：英雄灵魂石）</t>
@@ -37,7 +67,13 @@
     <t>type</t>
   </si>
   <si>
-    <t>type(int(11))</t>
+    <t>type(INT(11))</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>子类型</t>
@@ -46,7 +82,10 @@
     <t>subType</t>
   </si>
   <si>
-    <t>subType(int(11))</t>
+    <t>subType(INT(11))</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>名称</t>
@@ -58,7 +97,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>name(varchar(20))</t>
+    <t>name(VARCHAR(20))</t>
   </si>
   <si>
     <t>小号经验药水</t>
@@ -97,7 +136,7 @@
     <t>desc</t>
   </si>
   <si>
-    <t>desc(varchar(50))</t>
+    <t>desc(VARCHAR(50))</t>
   </si>
   <si>
     <t>使用增加英雄经验100点</t>
@@ -112,7 +151,7 @@
     <t>quality</t>
   </si>
   <si>
-    <t>quality(int(11))</t>
+    <t>quality(INT(11))</t>
   </si>
   <si>
     <t>图标</t>
@@ -121,7 +160,7 @@
     <t>icon</t>
   </si>
   <si>
-    <t>icon(varchar(20))</t>
+    <t>icon(VARCHAR(20))</t>
   </si>
   <si>
     <t>item1</t>
@@ -133,7 +172,13 @@
     <t>sellPrice</t>
   </si>
   <si>
-    <t>sellPrice(int(11))</t>
+    <t>sellPrice(INT(11))</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>800</t>
   </si>
   <si>
     <t>exportDatabaseTableName</t>
@@ -269,52 +314,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -698,394 +743,394 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="9" style="5"/>
-    <col min="8" max="8" width="9" style="6"/>
-    <col min="9" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <v>100001</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11">
-        <v>-1</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="12">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>100002</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>-1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="6">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>200001</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5">
-        <v>-1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="6">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>200002</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="6">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>200003</v>
-      </c>
-      <c r="B10" s="4">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5">
-        <v>-1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="6">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>200004</v>
-      </c>
-      <c r="B11" s="4">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5">
-        <v>-1</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="6">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>200005</v>
-      </c>
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5">
-        <v>-1</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="6">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>200006</v>
-      </c>
-      <c r="B13" s="4">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5">
-        <v>-1</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="6">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>200007</v>
-      </c>
-      <c r="B14" s="4">
-        <v>2</v>
-      </c>
-      <c r="C14" s="5">
-        <v>-1</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="6">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>200008</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2</v>
-      </c>
-      <c r="C15" s="5">
-        <v>-1</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="6">
-        <v>800</v>
+      <c r="G15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1108,18 +1153,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
+      <c r="A1" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>40</v>
+      <c r="A2" s="16" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/MySQLToExcel/bin/Debug/ExportExcel/prop.xlsx
+++ b/MySQLToExcel/bin/Debug/ExportExcel/prop.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\表格导出工具\MySQLToExcel\bin\Debug\ExportExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="32355" windowHeight="12105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9435" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="config" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="config" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
   <si>
     <t>道具ID</t>
   </si>
@@ -185,6 +193,9 @@
   </si>
   <si>
     <t>prop</t>
+  </si>
+  <si>
+    <t>exportDatabaseTableComment</t>
   </si>
 </sst>
 </file>
@@ -310,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -360,6 +371,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -440,12 +454,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -455,39 +472,39 @@
         <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,7 +539,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,166 +583,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -1144,7 +1137,7 @@
   <sheetPr>
     <tabColor indexed="51"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1154,15 +1147,19 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="16384" width="9" style="15"/>
+    <col min="2" max="2" width="9" style="17"/>
+    <col min="3" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B1" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>55</v>
       </c>
@@ -1171,30 +1168,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>